--- a/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/data/atom.menu.xlsx
+++ b/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/data/atom.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828AE437-3B4A-9E40-8FFE-2F07C0C63F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA1178-CDCE-3546-88FD-F1A2784DED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60520" yWindow="-1640" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -103,13 +106,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
-  </si>
-  <si>
     <t>ee0a6f15-62cf-42fd-b6dd-c1043e232486</t>
   </si>
   <si>
@@ -117,13 +113,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>appstore</t>
+  </si>
+  <si>
+    <t>/epic/modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share-alt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「旧」建模管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPAND</t>
+  </si>
+  <si>
+    <t>develop.atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.atom.entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.atom.model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.atom.relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.atom.index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/atom/entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/atom/model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/atom/relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/atom/indexing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</t>
+  </si>
+  <si>
+    <t>3f6d8b63-f569-4b5c-b109-48e74b3661ce</t>
+  </si>
+  <si>
+    <t>c5389bd0-a37e-4c6b-b0c2-c499940f498a</t>
+  </si>
+  <si>
+    <t>ad1075e4-4bf5-4ef2-a48f-2e1e5c60305d</t>
+  </si>
+  <si>
+    <t>1d0cda23-e8db-40b1-abe0-75f748b04478</t>
+  </si>
+  <si>
     <t>建模管理</t>
-  </si>
-  <si>
-    <t>appstore</t>
-  </si>
-  <si>
-    <t>/epic/modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +275,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -257,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +401,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A5:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -645,16 +751,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -722,33 +828,186 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>A$6</f>
+        <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9">
-        <v>1005</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="D6" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>A$6</f>
+        <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="H7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f t="shared" ref="B8:B10" si="0">A$6</f>
+        <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/data/atom.menu.xlsx
+++ b/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/data/atom.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-atom/src/main/resources/plugin/atom/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA1178-CDCE-3546-88FD-F1A2784DED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02749169-4204-3A4C-A9E3-88B19D02A86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60520" yWindow="-1640" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -109,10 +109,6 @@
     <t>ee0a6f15-62cf-42fd-b6dd-c1043e232486</t>
   </si>
   <si>
-    <t>zero.develop.model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appstore</t>
   </si>
   <si>
@@ -219,6 +215,10 @@
   </si>
   <si>
     <t>索引设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old.zero.develop.model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +725,7 @@
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -835,7 +835,7 @@
         <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9">
         <v>2000</v>
@@ -844,26 +844,26 @@
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6">
         <v>20000</v>
@@ -872,29 +872,29 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
         <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9">
         <v>1005</v>
@@ -903,29 +903,29 @@
         <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="I7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ref="B8:B10" si="0">A$6</f>
         <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9">
         <v>1010</v>
@@ -934,29 +934,29 @@
         <v>2</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9">
         <v>1015</v>
@@ -965,29 +965,29 @@
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>a344bb6e-a669-4f99-93ad-7f73ecd5bc6b</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9">
         <v>1020</v>
@@ -996,16 +996,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="12"/>
     </row>
